--- a/OutpatientAutomation/Test-data/RegisterPatient_Data.xlsx
+++ b/OutpatientAutomation/Test-data/RegisterPatient_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dalia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation projects\OPAutomation\OutpatientAutomation\Test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD52B56-C363-4651-88F1-44958AF89637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1B7503-85F2-4571-A44B-F7E2323FD89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A0420915-23E1-4BE4-A48E-9A752B7E37C7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>Waleed</t>
   </si>
@@ -43,12 +43,15 @@
   <si>
     <t>01223455464</t>
   </si>
+  <si>
+    <t>giza, cairo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +61,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -84,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -96,6 +106,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -412,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9712CDD-B5CA-460C-93AC-6D51604ABF4C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +443,7 @@
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,9 +456,53 @@
       <c r="D1" s="3">
         <v>12345678910112</v>
       </c>
+      <c r="E1" s="1">
+        <v>5561122333</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>12345678910112</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5561122333</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>12345678910112</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5561122333</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
